--- a/data/hotels_by_city/Dallas/Dallas_shard_202.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_202.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jenny W</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>I bookended a stay at the Element hotel with a trip to DC in between each nights stay. I left my car parked at the hotel while I was in DC. When I flew back to Dallas, I was picked up at the airport on the hotel shuttle. Troy was the shuttle driver. I mentioned something about my car at the hotel. He asked me which was my car. He said that he had noticed my car had been hit by a truck in the parking lot. He told his manger about my car and they took pictures and got pictures of the license plate of the truck that hit mine. I am very thankful for Troy noticing what happened to my car and reporting it. I am thankful for the manager, as well, for his initiative!More</t>
   </si>
   <si>
+    <t>Tom S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r571122456-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Katy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r578325442-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Lorry T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r576316694-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Dylan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r568419830-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Jacob D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r568418024-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>Both breakfast cooks made my day. They were happy never complained or anything. DT told us all about the city and things to do while here. He was very nice. 11/10. He went above and beyond for my family.</t>
   </si>
   <si>
+    <t>alwaysonthego303</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r566656426-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t>The hotel (rooms, restaurant, hallways etc.) were modern and clean. Amenities in the room were useful. The restaurant staff was accommodating  and the food was better than expected. I will definitely stay here on future trips.</t>
   </si>
   <si>
+    <t>Shelly Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r566508028-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +321,9 @@
     <t>I have stayed at both hotels on this property and have had nothing but amazing experiences.  The staff are all friendly, beyond helpful and courteous.  I had a credit card issue with my wallet getting stolen (Not at the hotel) and had to get the Property manager to assist me with that.  The restaurants onsite have good food, the rooms are clean and bright and everything is always neatly in order.  I do like the Element beds a bit better but that is just my personal preference.  I would highly recommend this to anyone!</t>
   </si>
   <si>
+    <t>sky g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r565829029-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,6 +339,9 @@
     <t>First impressions are lasting impressions... I called the hotel to confirm and modify my reservation, I was surprised at the overwhelming courtesy and care given to me by Kazhimere.  And guess who checked me in the next day; Kazhimere!   She smile was infectious and the hotel lobby was bright.  The room was well appointed and immaculate. Our  Housekeeper Olga is top notch.  Not to mention how kind Priscilla was to extend her breakfast skillet for a few extra minutes.  It is a great combo of cleanliness and kindness! Other hotels should take note... Thanks!!!!!!</t>
   </si>
   <si>
+    <t>Jay S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r565055285-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>Just finished a wonderful, hand crafted breakfast by DT. It was an egg white and zucchini scramble. Great guy with tips and recommendations of things to do and places to eat at while in dallas. I look forward to returning soon!</t>
   </si>
   <si>
+    <t>David T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r563037761-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,6 +378,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>AJCheramie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r562498572-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,6 +399,9 @@
     <t>We traveled to Dallas for the NCA national competition.  We booked a queen suite.  Unfortunately, when we went to check in there were no more queen suites available.  I was not happy about this at all, beings we made reservations five months prior to arrival.  Some one made a mistake along the line, because several reservations behind us had a similar issue.  However, how a problem is handled says everything about a business.  AD was working the front desk, and he did an outstanding job of remaining calm, polite, and multi tasking to meet everyone's needs.  His patience and professionalism was impressive.  I can not imagine the riot that would have occurred had he not handled himself so professionally.  Besides making sure we were comfortable for our stay, this hotel is fabulous. The lobby has a pool table, snack area, and a bar, with comfortable sofas.  The rooms are comfortable and spacious, equipped with a kitchen counter, sink, glassware, etc.  It is clean and modern, and the breakfast was delicious.  The breakfast crew got very busy very fast.  Many of the athletes are on the same schedule, but the staff serving did a great job of taking care of everyone.We travel for kids sporting activities often, and we will defiantly book a room here again!  Thanks again AD!More</t>
   </si>
   <si>
+    <t>Veronika W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r562293237-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -376,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">I made a gigantic mistake with my booking and was assisted by Allen at the front desk at Elements Dallas Love Field. He took the time to hear and understand my concern and promptly took action. Even at moments when he was unsure how to help his quick action and thinking saved the day. Your hotel has a great team member representing on the front line! Kudos to you Allen. Thanks again for saving the day!-Veronika </t>
+  </si>
+  <si>
+    <t>Alvin C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r561503960-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -408,6 +450,9 @@
 Gentlemen with colored haired and a not so nice attitude) checked in two couples which raised a flag for me. While he was checking in the second couple he said and I quote “would you like one or two keys for your studio king.”  After assisting the couple I asked if a room was available now. The agent said “sorry I forgot, we are still waiting for rooms and once a room becomes available I will let you know”.  An hour passes by and another agent (shorter gentlemen but super friendly) asked me if I was being assisted. I said the other agent was going to notify me once my room was available, but coming to find out he went to lunch and apparently did not perform a hand of to the person covering him (hospitality 101). After an hour and 15 minutes of sitting in...HotelBeautiful hotel with a chic minimalism design. Lobby area very open with floor to ceiling walls. RoomStayed in a king studio (prayed for a king bedroom upgrade for my birthday but hotel wasn’t able to accommodate ). Still very spacious with a fully equipped kitchen, pots, pans, tableware, refrigerator and microwave. Bathroom has the best lighting I have ever seen and the water pressure was soothing.  Guest ServicesI requested an early check in, I was told a room was not available at the moment which I understood. However the agent (tallGentlemen with colored haired and a not so nice attitude) checked in two couples which raised a flag for me. While he was checking in the second couple he said and I quote “would you like one or two keys for your studio king.”  After assisting the couple I asked if a room was available now. The agent said “sorry I forgot, we are still waiting for rooms and once a room becomes available I will let you know”.  An hour passes by and another agent (shorter gentlemen but super friendly) asked me if I was being assisted. I said the other agent was going to notify me once my room was available, but coming to find out he went to lunch and apparently did not perform a hand of to the person covering him (hospitality 101). After an hour and 15 minutes of sitting in the lobby I was able to finally check into my room. HousekeepingI left the hotel to around 1pm to go to brunch and requested my room to be serviced. I arrived back around 7pm and my room was not cleaned. Brad said he put the request in, apologized and offered what he can to help. I guess I will have to settle for the 250 star points instead. GymFree weights and machines with a lot of space WXYZ BarNice stiff cocktails and the bartender with the dreads was very helpful RobotI received a call about a visitor heading up, thought it was my bff but instead it was a robot! Brad sent a coke for my birthday  and the gentlemen with the bald head (sorry I don’t know his name) sent a drink voucher for the bar ConclusionI will definitely return, unless I see the guy that initially checked me, because now he left a bad taste in my mouth. The morning breakfast was good, nice variety and the female cook (very sweet lady) made me an egg white with avocado omelette (DOPE). I just wanted to thank Brad again for his hospitality and kindness, you truly made my stay memorable. More</t>
   </si>
   <si>
+    <t>sogno_39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r561381972-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>Loved the concept of the hotel.To compare with Hilton's Home2suite, the elements has better bedding and decor.The heavenly bed was heavenly.But Home2suite has better breakfast menu and better services.I really liked the setting of breakfast area. The smeg toaster was lovely. And the  yogurt station was nice. But silverware and plates were not re-stocked  well. Not much choice of menu.The shower  water pressure was too weak.Would stay again? Yes definitely!More</t>
   </si>
   <si>
+    <t>Denise C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r560150220-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -447,6 +495,9 @@
     <t>I stayed at Element for 5 nights. Originally was staying for 3 but they were very gracious to extend my stay without much notice.  The hotel is amazing in many ways! Staff is first class/ best overall guest service/ way exceeded expectations, in fact, almost shocked at how great everyone was...special mention/thanks to AFOM: Adrain, SUPER: Brad, ASSOC: Kyron, Josh, Kazi, HSK: Tonya.  Room was immaculate and well appointed; loved the fresh scents throughout hotel; loved the understated, eco-friendly decor; amazed to find this jewel (5-star quality) right next to Love Field. Thx for a great stay!!</t>
   </si>
   <si>
+    <t>JacksonvilleAirliner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r558387427-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -465,6 +516,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>rickmK7543RO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r555542119-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,6 +534,9 @@
     <t xml:space="preserve">We were looking to move from another state, so made several trips to look for a home in the surrounding  Dallas/Fort Worth area, in doing so finding a nice hotel close to the airport to make it more convenient to return our rental. We had heard about this hotel and tried it. That was it, this is a very fine hotel, very friendly staff, very clean and excellent service. </t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r554856048-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -501,6 +558,9 @@
     <t>I would first like to start off by stating that this hotel is absolutely amazing! The decor is great and I really love how they incorporate two brands. The A-Loft had a very modern theme and a great view of the city. The room was clean, comfortable, and was able to accommodate four guests comfortably. The service was also fantastic! I purchased a few items from the convenience store and the gentleman who checked me out was very pleasant. Also, the ease of check in and check out was fantastic. Brad made sure that we had the room we wanted and even called our room to make sure we were satisfied. I have never had this at a hotel and I will DEFINITELY be returning to this hotel while in Dallas. If you have never stayed at a Starwood Property then now is the time to do so. If Brad is working, he will definitely take great care of you!More</t>
   </si>
   <si>
+    <t>Terry P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r544433724-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +588,9 @@
     <t>I stayed at this hotel for business this week.  Although all the staff was helpful, I observed a particularly helpful new front desk trainee, Allen, who worked so hard to make things easier on an older traveler! My first job was with Hilton hotels for five years so I know what to look for.More</t>
   </si>
   <si>
+    <t>i-love-2-travel-xx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r543204918-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -552,6 +615,9 @@
     <t>This is an interesting hotel.  The building is spit into two hotels, and the Element is the side for longer stays.  The room includes a kitchen area and lots of storage.  The vibe here is very hip and cool - modern decor.  New.  Makes it a fun place to stay.  Another plus is the airport shuttle.  However, some kinks need to be worked out.  The items in the free breakfast that should be hot (eggs, coffee, etc.) were all cold.  The workout room had no clock, which is needed for timed exercises as well as keeping on schedule (like making it to breakfast before it closes).  Also, no mat which is essential for cool down and other exercises like sit-ups, and no remote to change the TV channel.  These are easy fixes, and I hope they are done.More</t>
   </si>
   <si>
+    <t>cpep22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r540430846-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -574,6 +640,9 @@
   </si>
   <si>
     <t>So...I checked in to my room and had several large stains on the inside of my comforter...they looked like blood stains but I can't be certain...I requested for the sheets to be changed before I left for the day...when I came back to the room at the end of the day worn out and exhausted, I couldn't wait to jump in bed but to my dismay the dirty sheets were still on the bed! Had to wait about another 45-60 min to get them changed out. While I understand this is a fairly new hotel and I'm sure this is a fine establishment that's managed well, I had a poor experience. As a platinum member, I travel and stay in as many as 16 different hotels a month...and this was the least favorable experience I've had in the last 3-4 weeks. Thankfully, Kyron (changed my sheets) and Darius (front desk) made things right. Shot out to them and I hope they get commended/rewarded for their efforts. Nice looking hotel but lack luster service...in my short experience. Other than that hotel was fine. Clean with nice modern decor.More</t>
+  </si>
+  <si>
+    <t>Andrew G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r533879770-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -605,6 +674,9 @@
 The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas...This is my first time staying at an Element property, and I could not have been more satisfied.Upon arrival, I was promptly and warmly greeted at the counter and welcomed onto the property. The hotel was clean, music and overall ambiance were inviting, and it was clear to me that this hotel can be attractive to multiple demographics. Whether you are in your mid-20s looking for a clean, modern, and eco-friendly option, or if you're a larger family on vacation looking for a comfortable room with extended-stay features, this hotel will certainly work well for both groups.With regard to the hotel itself, the immediate things that stood out were its cleanliness, bright and inviting spaces, and a unique and modern eco-friendly design. This Element property has mastered the ability to encourage sustainability while still remaining warm and inviting to guests.I had noted on my reservation that I was celebrating my birthday, and was pleasantly surprised to see my room upgraded, along with a personalized note and accompanying welcome gifts inside my room. That was certainly a nice touch and I appreciated the gesture, especially since it was clear to me that this hotel was at capacity and yet still made an effort to offer that level of attention to detail.The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas prints and wall art, and a kitchenette ready for cooking up delicious meals in. I did not get the opportunity to cook in my room, but I'll be sure to come back and take up the opportunity. The bed was large and comfortable, and was certainly a treat to fall asleep in. I also appreciated the window treatments that allowed for full-customization of lighting and privacy during my stay. My view of the hotel faced towards Dallas Love Field, and as an airplane fan, I loved the view and was not at all disturbed by any noise from the airplanes taking off. The bathroom was organized well, and I appreciated the extra lighting and soaps that further added to the Element brand -- clean, crisp, and refreshing.I did take advantage of Element's breakfast service and was thoroughly impressed. Simple yet satisfying options of hot items included breakfast biscuits on one morning and breakfast wraps on another, accompanied by plenty of breakfast desserts and cereals, along with oatmeal and fruit. The breakfast area was well tended to throughout...More</t>
   </si>
   <si>
+    <t>mommabeara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r526876375-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -632,6 +704,9 @@
     <t>Modern hotel very near Dallas Love Field airport. Free hotel shuttle to airport every 30 minutes. Pool. Gym. Some, limited food available. Kitchenettes in rooms with microwave, small fridge, sink.  Not far from SMU &amp; downtown Dallas &amp; Deep Ellum area.More</t>
   </si>
   <si>
+    <t>Liliana P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r524470229-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -656,6 +731,9 @@
     <t>I am big on customer service and work in management for customer service. The bartender Darius Beal at wxyz lounge was very awesome. He did it all place order make drinks and still made small convo at the bar with his customers. No matter how busy the bar got he kept up with each customers and smiled. Even when he placed orders and went to get them he would come right back out the the bar to deliver the food he wouldn't step away for no longer 2-3 mins he made sure the customers glasses stayed filled. He was very attentive to customers in the lounge area as well.He would ask how's your day, can I get you anything. One customer didn't even know what they wanted to drink he asked will what you like and he made their drink and she was very shocked like this is really good is omg what is this. He is a 5 star bartender.⭐️⭐️⭐️⭐️⭐️. I will definitely be back!!!!More</t>
   </si>
   <si>
+    <t>tmw8318</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r524358466-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -677,6 +755,9 @@
     <t>The Element by Westin is a really nice hotel in the area.. but it's the staff that makes it that much more special.  Both Kyron and Sandy are a gem.  There is never a morning that Sandy doesn't have a bright smile on her face and saying Good Morning Ms. X.  In the evening, Kyron is just as personable and friendly.  I often ask for additional items and he is very eager to get it my room in a timely fashion. Thanks again for your lovely service Kyron and Sandy!More</t>
   </si>
   <si>
+    <t>Phillip N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r523285579-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -701,6 +782,9 @@
     <t>Rooms were great. Deceptive advertising at bar. Ordered food and drink at bar based on menu provided. Turned out to be "happy hour" pricing, yet no other menu/pricing provided. Cost was double advertised price. Deceptive.More</t>
   </si>
   <si>
+    <t>295alanaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r516478352-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -728,6 +812,9 @@
     <t>Heather and Ky are both amazing.  I have stayed at the Element every week for the past few months and they make me feel right at home.  They welcome me by my first name every time I enter the hotel and they know my preferences.  Even when my room key decides to stop working or I need something brought up to my room they are extremely pleasant and make themselves very available.More</t>
   </si>
   <si>
+    <t>MoonWillow420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r505253885-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -755,6 +842,9 @@
     <t>Several reasons I would not stay here again. 1.  If you have dogs there are no rooms on ground level pets must stay on level 2 therefore you must use a stairwell that locks behind you or use an elevator that takes you through the main lobby. There is absolutely no where to walk your dogs no grass area.  2. They have a very nice laundry room, the washing machine as an h e but the only laundry soap they sell is powdered regular and that is in a machine that also requires quarters but there is no change machine in the laundry room and the lobby desk does not have quarters. 3.  There is road construction on the main road out front lots of horns and traffic noise  4.  There is also building construction directly behind and beside the hotel so there is constant construction noise all day long.  5. Very close to Love Field so there is the airplanes landing and taking off noisy. 6.  There is nothing in walking distance such as stores or restaurants.  7.  Be mindful on the second floor if you face the pool you will also have to deal with the Drone of the rooftop air conditioners.  The rooms themselves seems to be nice with adequate ammenities,  but the air conditioner  runs all the time and is too cool but if you turn it up it gets to warm and muggy.  I appreciate...Several reasons I would not stay here again. 1.  If you have dogs there are no rooms on ground level pets must stay on level 2 therefore you must use a stairwell that locks behind you or use an elevator that takes you through the main lobby. There is absolutely no where to walk your dogs no grass area.  2. They have a very nice laundry room, the washing machine as an h e but the only laundry soap they sell is powdered regular and that is in a machine that also requires quarters but there is no change machine in the laundry room and the lobby desk does not have quarters. 3.  There is road construction on the main road out front lots of horns and traffic noise  4.  There is also building construction directly behind and beside the hotel so there is constant construction noise all day long.  5. Very close to Love Field so there is the airplanes landing and taking off noisy. 6.  There is nothing in walking distance such as stores or restaurants.  7.  Be mindful on the second floor if you face the pool you will also have to deal with the Drone of the rooftop air conditioners.  The rooms themselves seems to be nice with adequate ammenities,  but the air conditioner  runs all the time and is too cool but if you turn it up it gets to warm and muggy.  I appreciate the fact they are pet friendly but there was certainly no thought put into pet needs. I hope this review help somebody with pets I researched and did not understand that I would be on the second floor only my dogs are 90 lb each terrified of elevators and older so it is difficult for them to go up and down the stairs I wish I would have known. More</t>
   </si>
   <si>
+    <t>jeddie1889</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r501895374-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -779,6 +869,9 @@
     <t>I booked last minute so that I could quickly get to Love Field in the morning.  I booked online while I was on the phone with Ky.  I let him know that my girls had never been in a hotel and he was able to upgrade our room and give us a great view!  We got to meet "Bot" the robot that brings extra towels and loved it!  Everything was clean and very comfortable and the trip to the airport was fast. Ky was great!  We will be back next time we fly! More</t>
   </si>
   <si>
+    <t>ksr96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r498914121-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -806,6 +899,9 @@
     <t>Enjoyed my 2 night stay at the Element!  Very comfortable room and bed and this hotel is extremely clean.  Easy access to Love Field and really all points of Dallas. The bar in the hotel is really good. Russ was fantastic!!!    More</t>
   </si>
   <si>
+    <t>Marina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r497650428-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -824,6 +920,9 @@
     <t>My husband and I stayed with our dog, Brady, while moving across the country. We love Starwood for their pet-friendliness and we've stayed at many Alofts, but never Element. At this property, they're in the same building with some shared facilities. We arrived late in the day and decide to eat at the XYZ bar at Aloft so we could bring the dog (menu was small but the food was surprisingly good). Our room was fine. Small and basic but very clean and modern. I'm glad we chose Element though, because breakfast was included in the price. Better than your average hotel continental breakfast. I had an egg white, quinoa, spinach, hash brown scramble thing with some yogurt and tea and was happy to start our next leg of the road trip with a filling and healthy breakfast (and bonus points - we could eat in the lobby with our dog). I had read reviews that the neighborhood was sketchy but didn't find that to be the case. You're staying at an airport hotel so the neighborhood isn't exactly a destination, but I wish people would leave reviews based on what the experience was supposed to be (this isn't the Waldorf, but it easily met and exceeded all of our expectations for an easy one-night stop). More</t>
   </si>
   <si>
+    <t>A6332MTstevenl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r497557540-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -842,6 +941,9 @@
     <t>Awesome three night stay at the Element. Wonderful, new, clean hotel around the corner from Love Field and within minutes of SMU and area freeways. Very professional and friendly staff. Good breakfast and complimentary beer and wine during the week. New hotel with good noise insulation so noise wasn't an issue like at many other nearby hotels. Reasonably priced, good value for cost. All positives and nothing negative to report, and I am very picky! Tried other hotels in the area and the Element is superior. Will definitely return.More</t>
   </si>
   <si>
+    <t>rws10362</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r495231672-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -866,6 +968,9 @@
     <t>My husband and I had to stay here for three nights for a business trip. For some inexplicable reason I had to reregister and get keys redone everyday we were here before 11;00am each day. Front desk person was unapologetic when they had no laundry detergent for the laundry facilities. On day three my door locked and so my dog and myself were trapped/locked in our room. It took them 30 minutes to come and get the door unjammed.Again no apologies for our inconvenience. They obviously don't instruct their employees about customer service. You feel like you are inconveniencing them. Rooms are very small and not good for more than an overnight stay.More</t>
   </si>
   <si>
+    <t>SwankB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r489881596-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -893,6 +998,9 @@
     <t>Stayed at this hotel Memorial Day weekend and this was our second time staying here. On Sunday night someone tried to steal out 2017 GMC DENALI, we where parked in the front of the hotel on the back row. They tried to pop out door handle where you insert the key. When we went to check out the hotel and moved our car to the hotel to load luggage that is when we noticed it! On the Monday there was no MANAGER/ SUPERVISOR or GENERAL MANAGER at work, I guess because it was Memorial Day but how do you not have someone of that level available to cover issues as such. Some form of management should be on duty at all times!!!! I have contacted corporate and I'm waiting for a call back. Yes the hotel is new and it's nice and the first time staying a month a go we had no problems but this time we did. I made a complaint with the ladies and gentlemen that was there but funny thing is no one in management representing hotel has reached out to me or my husband and that's a disappointment because I'm sure they are aware of the incident from the employees that where there on that Monday morning.....More</t>
   </si>
   <si>
+    <t>Rhina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r486247368-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1025,9 @@
     <t>Clean, smells new, and bright.  Enjoyed my overnight stay.  Reasonably priced, but unpretentious.  Great complimentary breakfast with hot eggs and bacon/sausage to boot.  The Element side has a microwave, coffee maker, kitchen utensils.  Desk also is provided.  Large screen TV.  View of the pool.  Shared bar/lounge with the Aloft hotel.  Free parking.  Bed was comfortable; tons of pillows.  Will definitely return.More</t>
   </si>
   <si>
+    <t>hotellover88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r484741820-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1050,9 @@
   </si>
   <si>
     <t>We stayed twice going in and out of Love Field.  Just a one-night stay each time but loved the room, especially the bathroom layout and amenities.  The Heavenly Bed really was heavenly.  Best hotel bed I've ever slept on.  We enjoyed a couple of glasses of wine in the adjacent WXYZ bar in the Aloft Hotel.  The lady at the bar on Sunday night was very personable and professional.  Didn't catch her name but she was great!More</t>
+  </si>
+  <si>
+    <t>akakes17</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r483237608-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -966,6 +1080,9 @@
 The only saving grace in this matter was a front desk employee named Josh. He was...As someone who does long term business travel, I look for hotels with kitchen amenities. Element did not disappoint! Knives that actually cut things? Non-stick pans? The only thing left to be desired was a garbage disposal, but that's just me being picky. Combined with a great gym, beautiful pool, and well designed rooms, I would definitely stay here again.I stayed at this location shortly after their grand opening, so I am definitely willing to overlook a few bumps in the road - including finding a mouse in my room. When this happened, I called down to the front desk, and they promptly sent up 2 maintenance employees to have this matter resolved. I went down to the pool to read a book and wait it out once pest control arrived. While down there, one of the front end employees offered to turn on the fireplace for me since it was a bit chilly outside. While he was trying to figure it out I mentioned that I was waiting while they cleared a mouse out of my room. This guy joked that, "if he knew I had extra occupants, he would have charged me more." I found this to be a COMPLETELY inappropriate response. The hotel also offered no compensation for the inconvenience, I had to ask for what I was eventually given.The only saving grace in this matter was a front desk employee named Josh. He was wonderful, super apologetic, and got me situated in a new room. Thank you Josh for all your help!More</t>
   </si>
   <si>
+    <t>songstress815</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r482493792-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1099,9 @@
   </si>
   <si>
     <t>We were in town for the night to see a concert and needed a clean hotel with some amenities to stay at. We found Element and were not disappointed. Check in was a little challenging as there was no one on the Element side and one attendant on the Aloft side. He was very courteous and welcoming, though. The room was spacious and had essentials for simples in-room meals. The bed was very comfortable! I worked out before we headed home and could not believe how much equipment was in the gym! It truly had anything a person would need to get in a good workout. It was obvious that there was intention in setting up this gym instead of just putting one in as a "have to" afterthought. Breakfast was good as well. My only disappointment was that they ran out of regular eggs. The quinoa egg white has was very satisfying. There were plenty of choices.I would say that this hotel is really geared more towards the business traveler or adults even though there was a nice, shared pool. The vibe is great and I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>18554travel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r482049010-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1010,6 +1130,9 @@
 The misses are small, and could easily be rectified. So, though beds are comfortable, the sheets are rough. The airport shuttle only starts running at 6.00, so anyone with a flight at 7.00 or before has to order a cab/Uber—which at very early hours is not always easy. Despite...The Element Dallas Love Field is Starwood’s answer to the extended stay hotel, and as usual, they get it mostly right. Starting with the friendly, helpful staff, and continuing to the spacious, well-designed rooms (with small kitchens—equipped with refrigerator, microwave, cooktop, dishwasher, dishes, flatware, pots, pans, and utensils; a dining table; desk; and seating area), the hotel is a clear cut above its competitors and would be a reasonable, even pleasant place to spend a week on business. This property is brand new, so everything is fresh and works well. The location is a bit underdeveloped, but it is less than 5 minutes from the airport, and there are plenty of restaurants nearby (in a nice touch, the hotel shuttle will take guests to and from anything within a three-mile radius). I left too early to try the breakfast, but the room was certainly pleasant and sunny. There are snacks and small meals for sale in the lobby for other meals, as the hotel does not have a restaurant (the property is also an “Aloft,” which has a bar and its own food options, which are all available to Element guests).The misses are small, and could easily be rectified. So, though beds are comfortable, the sheets are rough. The airport shuttle only starts running at 6.00, so anyone with a flight at 7.00 or before has to order a cab/Uber—which at very early hours is not always easy. Despite being in a clear suburban location, the hotel charges $8.00 to park, which is ridiculous.Despite these minor irritations, the Element Dallas Love Field is a great option (one of few) for those who need to stay near this convenient, in-town airport. It provides visitors with an excellent experience at a moderate price point (under $140/night when I stayed), and I a brand to consider seriously when in the need for this type of hotel.More</t>
   </si>
   <si>
+    <t>scubadillo99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r479828500-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1154,9 @@
     <t>New place near Love Field.  We found the hotel to be super clean and the service was superior.  Nice bar area in next door Aloft area. Really comfortable beds and the room was clean, for the most part.  The only negative was the hair left in the bottom of the shower in our room.  That was kind of a turn-off, but it is my wife and I's new place to stay when we travel out of Love Field.   The shuttle service was THE BEST service I've ever had.   Really nice drivers and ON-TIME.  Reasonable rates to leave your car.More</t>
   </si>
   <si>
+    <t>Brian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r476271198-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1181,9 @@
     <t>Upon arrival to the hotel we were told the shuttle service to and from the airport runs every half hour.  I had to return my rental  car to the airport and had expected to take the hotel shuttle back to the hotel.  I arrived at the shuttle pick up location at 9:15pm and by 9:30pm, no shuttle.  Called the hotel and was told one would be leaving at 10:00pm.  By 10:15pm still no shuttle.  Called back and was told they would send a shuttle to retrieve me.  Shuttle finally arrived a little after 10:30pm.  The hotel is approximately 1.1 miles from the airport.  When we returned to the hotel we were given many ridiculous excuses as to why they had not arrived.  Moral of the story if you expect to be anywhere on time, do not stay at this hotel. More</t>
   </si>
   <si>
+    <t>Jonathan V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r473903944-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1208,9 @@
     <t>Great bed and mattress, and the air conditioning was perfect.Frustratingly slow check in.  An Aloft and an Element hotel are essentially joined to deter here.  From what I saw, the Element side seemed much nicer. . .brighter, airier.  Parking was free, but I had to park in the back of the building.I would return.More</t>
   </si>
   <si>
+    <t>DanaeHW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r470430030-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1227,9 @@
   </si>
   <si>
     <t>Beautiful hotel with lots of amenities and great customer service. My room was very spacious and decorated tastefully. There aren't a lot of things to do nearby but there is a shuttle that will take you within a reasonable distance and the staff members are happy to give you great recommendations. More</t>
+  </si>
+  <si>
+    <t>BusinessGalfromSouth</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r468611624-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1617,43 +1752,47 @@
       <c r="A2" t="n">
         <v>65800</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>8113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1667,50 +1806,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65800</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1730,50 +1873,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65800</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>83149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1787,50 +1934,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65800</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1844,50 +1995,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65800</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1901,50 +2056,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65800</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
-        <v>75</v>
-      </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1958,50 +2117,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65800</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2021,50 +2184,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65800</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2082,50 +2249,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65800</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132310</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2145,50 +2316,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65800</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>7363</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2202,50 +2377,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65800</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>9377</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2259,50 +2438,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65800</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132311</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2322,50 +2505,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65800</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132312</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>119</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>108</v>
-      </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2379,50 +2566,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65800</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132313</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2436,50 +2627,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65800</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>51308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2491,56 +2686,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="X16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65800</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>3679</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2560,50 +2759,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65800</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>132314</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2621,41 +2824,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65800</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132315</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2674,50 +2881,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65800</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2737,50 +2948,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65800</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>35136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2796,56 +3011,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="X21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65800</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2861,56 +3080,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="X22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65800</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2928,56 +3151,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65800</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>4438</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -2995,50 +3222,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65800</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132318</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3050,56 +3281,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65800</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132319</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3111,56 +3346,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="X26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65800</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132320</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3178,56 +3417,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="X27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65800</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>132321</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3239,56 +3482,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="X28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65800</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132322</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3300,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65800</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132323</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3361,47 +3612,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65800</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3418,56 +3673,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65800</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132325</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3479,56 +3738,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="X32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65800</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132326</v>
+      </c>
+      <c r="C33" t="s">
+        <v>287</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3540,56 +3803,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="X33" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65800</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>132327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>294</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>264</v>
       </c>
-      <c r="K34" t="s">
-        <v>265</v>
-      </c>
-      <c r="L34" t="s">
-        <v>266</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>235</v>
-      </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3601,56 +3868,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="X34" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="Y34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65800</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132328</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3662,56 +3933,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="X35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65800</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132329</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3723,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="X36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Y36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65800</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132330</v>
+      </c>
+      <c r="C37" t="s">
+        <v>320</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -3788,56 +4067,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="X37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65800</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132331</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3855,56 +4138,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65800</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132332</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -3922,56 +4209,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65800</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>132333</v>
+      </c>
+      <c r="C40" t="s">
+        <v>346</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="J40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -3983,56 +4274,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X40" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65800</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132334</v>
+      </c>
+      <c r="C41" t="s">
+        <v>353</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4048,56 +4343,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="X41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65800</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>132335</v>
+      </c>
+      <c r="C42" t="s">
+        <v>362</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4115,56 +4414,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X42" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65800</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>10345</v>
+      </c>
+      <c r="C43" t="s">
+        <v>370</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4176,56 +4479,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65800</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>132336</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4237,56 +4544,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65800</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132337</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4298,56 +4609,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="X45" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="Y45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65800</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>132338</v>
+      </c>
+      <c r="C46" t="s">
+        <v>395</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4365,13 +4680,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="X46" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="Y46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_202.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,138 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jenny W</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r603003996-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>12059413</t>
+  </si>
+  <si>
+    <t>603003996</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>From Kazhimere,Jason,Brittany,Christine,Greg,Viantley,Daris,Stephanny! Very helpful ! Hotel is awesome!Clean,pool is nice love the setup with bar happy hour ,breakfast ,workout room ,laundry for a long stay close to shopping,bike ride.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r598562412-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>598562412</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Amazing front desk hospitality</t>
+  </si>
+  <si>
+    <t>I came to the hotel due to a family function. But ended up staying and the front desk receptionist Vianhey did everything in her power to make the stay a great one!! I will definitely be coming back!!! There should be one of her in every hotel to make things easier and smoother in hotel business !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r598383367-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>598383367</t>
+  </si>
+  <si>
+    <t>Dallas visit</t>
+  </si>
+  <si>
+    <t>Visited Dallas for a quick business trip, stayed at the element. The hotel staff is friendly and checked me in quickly. Loved the modern decor and free breakfast bar. Definitely staying here again! Thanks for a lovely stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r595429831-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>595429831</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Nice new property</t>
+  </si>
+  <si>
+    <t>Great new property shared space with aloft hotels. Check-in was bad they have people either on the aloft side or the elements side. But not both. we waited about 15min just for someone to show up to the front desk. Rooms are clean and spacious. Breakfast is not good at all. They had someone cooking egg whites no eggs just egg whites. Why? Most guest seemed to be very disappointed. I would still give this place another try.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r591021972-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>591021972</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Excellence</t>
+  </si>
+  <si>
+    <t>Our brief stay here was Excellent. Stephanny greeted us, was very informative and courteous. The rooms were very clean and accomadating with everything needed. Upon checkout Kas greeted us and we were treated with the same professionalism as check in. This was by far one of the best hotels we’ve stay in. When we go on future trips we’ll definitely check to see if there’s an Element in the area.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r589037868-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>589037868</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Tonya and Kaz, Stephanie are so sweet and welcoming this is a great place to stay anytime of the year, you ladies rock!!! In addition, it is super clean and the “relax” has free beer, wine, AMAZING cheese, olives and bread with always a good person to talk to.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r586537778-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>586537778</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love. This. Hotel! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We loved everything about this hotel. Front desk staff was more than helpful to accommodate our requests. The room was nice and spacious. Kitchen had fully stocked silverware drawers, bowls and ceramic dinner plates and bowls. The view is the planes taking off was an absolute hit with us! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r583137208-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>12059413</t>
-  </si>
-  <si>
     <t>583137208</t>
   </si>
   <si>
@@ -183,7 +300,37 @@
     <t>I bookended a stay at the Element hotel with a trip to DC in between each nights stay. I left my car parked at the hotel while I was in DC. When I flew back to Dallas, I was picked up at the airport on the hotel shuttle. Troy was the shuttle driver. I mentioned something about my car at the hotel. He asked me which was my car. He said that he had noticed my car had been hit by a truck in the parking lot. He told his manger about my car and they took pictures and got pictures of the license plate of the truck that hit mine. I am very thankful for Troy noticing what happened to my car and reporting it. I am thankful for the manager, as well, for his initiative!More</t>
   </si>
   <si>
-    <t>Tom S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r578325442-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>578325442</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and quiet. Would highly recommend staying there. Even though you are close to the airport, you don’t notice the planes. Close to stuff down town. Staff was very friendly. Room was very nice and clean. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r576316694-Element_Dallas_Love_Field-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>576316694</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to Love Field airport </t>
+  </si>
+  <si>
+    <t>Clean and comfortable stay near Dallas Love Field airport. Beds are comfortable. Things are nice and new. Parking was full in front when we arrived, so we parked out back. Breakfast was very good and included in the price.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r571122456-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -201,57 +348,6 @@
     <t>Nice new Hotel Element and Aloft together. Element is a nice clean comfortable hotel with nice hardwood floors and full kitchen if you need it. Healthy breakfast is provided for you in the morning and wine, beer and snack hour at night. Departure board for Love is always on. Very nice hotel. DT an employee makes a great egg white omelet in the morning and was very kind helping us find everything we needed.</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Katy M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r578325442-Element_Dallas_Love_Field-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>578325442</t>
-  </si>
-  <si>
-    <t>05/06/2018</t>
-  </si>
-  <si>
-    <t>Loved it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very clean and quiet. Would highly recommend staying there. Even though you are close to the airport, you don’t notice the planes. Close to stuff down town. Staff was very friendly. Room was very nice and clean. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Lorry T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r576316694-Element_Dallas_Love_Field-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>576316694</t>
-  </si>
-  <si>
-    <t>04/28/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close to Love Field airport </t>
-  </si>
-  <si>
-    <t>Clean and comfortable stay near Dallas Love Field airport. Beds are comfortable. Things are nice and new. Parking was full in front when we arrived, so we parked out back. Breakfast was very good and included in the price.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Dylan K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r568419830-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,12 +363,6 @@
     <t xml:space="preserve">Great service and Friendly staff. This guy, his name is DT, kept us occupied and gave us some insight on things to do down here and recommended some good places to eat. Highly suggest for any and everyone. </t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>Jacob D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r568418024-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,9 +375,6 @@
     <t>Both breakfast cooks made my day. They were happy never complained or anything. DT told us all about the city and things to do while here. He was very nice. 11/10. He went above and beyond for my family.</t>
   </si>
   <si>
-    <t>alwaysonthego303</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r566656426-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,9 +390,6 @@
     <t>The hotel (rooms, restaurant, hallways etc.) were modern and clean. Amenities in the room were useful. The restaurant staff was accommodating  and the food was better than expected. I will definitely stay here on future trips.</t>
   </si>
   <si>
-    <t>Shelly Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r566508028-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -321,9 +405,6 @@
     <t>I have stayed at both hotels on this property and have had nothing but amazing experiences.  The staff are all friendly, beyond helpful and courteous.  I had a credit card issue with my wallet getting stolen (Not at the hotel) and had to get the Property manager to assist me with that.  The restaurants onsite have good food, the rooms are clean and bright and everything is always neatly in order.  I do like the Element beds a bit better but that is just my personal preference.  I would highly recommend this to anyone!</t>
   </si>
   <si>
-    <t>sky g</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r565829029-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,9 +420,6 @@
     <t>First impressions are lasting impressions... I called the hotel to confirm and modify my reservation, I was surprised at the overwhelming courtesy and care given to me by Kazhimere.  And guess who checked me in the next day; Kazhimere!   She smile was infectious and the hotel lobby was bright.  The room was well appointed and immaculate. Our  Housekeeper Olga is top notch.  Not to mention how kind Priscilla was to extend her breakfast skillet for a few extra minutes.  It is a great combo of cleanliness and kindness! Other hotels should take note... Thanks!!!!!!</t>
   </si>
   <si>
-    <t>Jay S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r565055285-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -357,9 +435,6 @@
     <t>Just finished a wonderful, hand crafted breakfast by DT. It was an egg white and zucchini scramble. Great guy with tips and recommendations of things to do and places to eat at while in dallas. I look forward to returning soon!</t>
   </si>
   <si>
-    <t>David T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r563037761-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -378,9 +453,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>AJCheramie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r562498572-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,9 +471,6 @@
     <t>We traveled to Dallas for the NCA national competition.  We booked a queen suite.  Unfortunately, when we went to check in there were no more queen suites available.  I was not happy about this at all, beings we made reservations five months prior to arrival.  Some one made a mistake along the line, because several reservations behind us had a similar issue.  However, how a problem is handled says everything about a business.  AD was working the front desk, and he did an outstanding job of remaining calm, polite, and multi tasking to meet everyone's needs.  His patience and professionalism was impressive.  I can not imagine the riot that would have occurred had he not handled himself so professionally.  Besides making sure we were comfortable for our stay, this hotel is fabulous. The lobby has a pool table, snack area, and a bar, with comfortable sofas.  The rooms are comfortable and spacious, equipped with a kitchen counter, sink, glassware, etc.  It is clean and modern, and the breakfast was delicious.  The breakfast crew got very busy very fast.  Many of the athletes are on the same schedule, but the staff serving did a great job of taking care of everyone.We travel for kids sporting activities often, and we will defiantly book a room here again!  Thanks again AD!More</t>
   </si>
   <si>
-    <t>Veronika W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r562293237-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -415,9 +484,6 @@
   </si>
   <si>
     <t xml:space="preserve">I made a gigantic mistake with my booking and was assisted by Allen at the front desk at Elements Dallas Love Field. He took the time to hear and understand my concern and promptly took action. Even at moments when he was unsure how to help his quick action and thinking saved the day. Your hotel has a great team member representing on the front line! Kudos to you Allen. Thanks again for saving the day!-Veronika </t>
-  </si>
-  <si>
-    <t>Alvin C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r561503960-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -435,7 +501,7 @@
     <t>Hotel
 Beautiful hotel with a chic minimalism design. Lobby area very open with floor to ceiling walls. 
 Room
-Stayed in a king studio (prayed for a king bedroom upgrade for my birthday but hotel wasn’t able to accommodate 😢). Still very spacious with a fully equipped kitchen, pots, pans, tableware, refrigerator and microwave. Bathroom has the best lighting I have ever seen and the water pressure was soothing.  
+Stayed in a king studio (prayed for a king bedroom upgrade for my birthday but hotel wasn’t able to accommodate ). Still very spacious with a fully equipped kitchen, pots, pans, tableware, refrigerator and microwave. Bathroom has the best lighting I have ever seen and the water pressure was soothing.  
 Guest Services
 I requested an early check in, I was told a room was not available at the moment which I understood. However the agent (tall
 Gentlemen with colored haired and a not so nice attitude) checked in two couples which raised a flag for me. While he was checking in the second couple he said and I quote “would you like one or two keys for your studio king.”  After assisting the couple I asked if a room was available now. The agent said “sorry I forgot, we are still waiting for rooms and once a room becomes available I will let you know”.  An hour passes by and another agent (shorter gentlemen but super friendly) asked me if I was being assisted. I said the other agent was going to notify me once my room was available, but coming to find out he went to lunch and apparently did not perform a hand of to the person covering him (hospitality 101). After an hour and 15 minutes of sitting in...HotelBeautiful hotel with a chic minimalism design. Lobby area very open with floor to ceiling walls. RoomStayed in a king studio (prayed for a king bedroom upgrade for my birthday but hotel wasn’t able to accommodate ). Still very spacious with a fully equipped kitchen, pots, pans, tableware, refrigerator and microwave. Bathroom has the best lighting I have ever seen and the water pressure was soothing.  Guest ServicesI requested an early check in, I was told a room was not available at the moment which I understood. However the agent (tallGentlemen with colored haired and a not so nice attitude) checked in two couples which raised a flag for me. While he was checking in the second couple he said and I quote “would you like one or two keys for your studio king.”  After assisting the couple I asked if a room was available now. The agent said “sorry I forgot, we are still waiting for rooms and once a room becomes available I will let you know”.  An hour passes by and another agent (shorter gentlemen but super friendly) asked me if I was being assisted. I said the other agent was going to notify me once my room was available, but coming to find out he went to lunch and apparently did not perform a hand of to the person covering him (hospitality 101). After an hour and 15 minutes of sitting in the lobby I was able to finally check into my room. HousekeepingI left the hotel to around 1pm to go to brunch and requested my room to be serviced. I arrived back around 7pm and my room was not cleaned. Brad said he put the request in, apologized and offered what he can to help. I guess I will have to settle for the 250 star points instead. GymFree weights and machines with a lot of space WXYZ BarNice stiff cocktails and the bartender with the dreads was very helpful RobotI received a call about a visitor heading up, thought it was my bff but instead it was a robot! Brad sent a coke for my birthday  and the gentlemen with the bald head (sorry I don’t know his name) sent a drink voucher for the bar ConclusionI will definitely return, unless I see the guy that initially checked me, because now he left a bad taste in my mouth. The morning breakfast was good, nice variety and the female cook (very sweet lady) made me an egg white with avocado omelette (DOPE). I just wanted to thank Brad again for his hospitality and kindness, you truly made my stay memorable. MoreShow less</t>
@@ -444,15 +510,12 @@
     <t>Hotel
 Beautiful hotel with a chic minimalism design. Lobby area very open with floor to ceiling walls. 
 Room
-Stayed in a king studio (prayed for a king bedroom upgrade for my birthday but hotel wasn’t able to accommodate 😢). Still very spacious with a fully equipped kitchen, pots, pans, tableware, refrigerator and microwave. Bathroom has the best lighting I have ever seen and the water pressure was soothing.  
+Stayed in a king studio (prayed for a king bedroom upgrade for my birthday but hotel wasn’t able to accommodate ). Still very spacious with a fully equipped kitchen, pots, pans, tableware, refrigerator and microwave. Bathroom has the best lighting I have ever seen and the water pressure was soothing.  
 Guest Services
 I requested an early check in, I was told a room was not available at the moment which I understood. However the agent (tall
 Gentlemen with colored haired and a not so nice attitude) checked in two couples which raised a flag for me. While he was checking in the second couple he said and I quote “would you like one or two keys for your studio king.”  After assisting the couple I asked if a room was available now. The agent said “sorry I forgot, we are still waiting for rooms and once a room becomes available I will let you know”.  An hour passes by and another agent (shorter gentlemen but super friendly) asked me if I was being assisted. I said the other agent was going to notify me once my room was available, but coming to find out he went to lunch and apparently did not perform a hand of to the person covering him (hospitality 101). After an hour and 15 minutes of sitting in...HotelBeautiful hotel with a chic minimalism design. Lobby area very open with floor to ceiling walls. RoomStayed in a king studio (prayed for a king bedroom upgrade for my birthday but hotel wasn’t able to accommodate ). Still very spacious with a fully equipped kitchen, pots, pans, tableware, refrigerator and microwave. Bathroom has the best lighting I have ever seen and the water pressure was soothing.  Guest ServicesI requested an early check in, I was told a room was not available at the moment which I understood. However the agent (tallGentlemen with colored haired and a not so nice attitude) checked in two couples which raised a flag for me. While he was checking in the second couple he said and I quote “would you like one or two keys for your studio king.”  After assisting the couple I asked if a room was available now. The agent said “sorry I forgot, we are still waiting for rooms and once a room becomes available I will let you know”.  An hour passes by and another agent (shorter gentlemen but super friendly) asked me if I was being assisted. I said the other agent was going to notify me once my room was available, but coming to find out he went to lunch and apparently did not perform a hand of to the person covering him (hospitality 101). After an hour and 15 minutes of sitting in the lobby I was able to finally check into my room. HousekeepingI left the hotel to around 1pm to go to brunch and requested my room to be serviced. I arrived back around 7pm and my room was not cleaned. Brad said he put the request in, apologized and offered what he can to help. I guess I will have to settle for the 250 star points instead. GymFree weights and machines with a lot of space WXYZ BarNice stiff cocktails and the bartender with the dreads was very helpful RobotI received a call about a visitor heading up, thought it was my bff but instead it was a robot! Brad sent a coke for my birthday  and the gentlemen with the bald head (sorry I don’t know his name) sent a drink voucher for the bar ConclusionI will definitely return, unless I see the guy that initially checked me, because now he left a bad taste in my mouth. The morning breakfast was good, nice variety and the female cook (very sweet lady) made me an egg white with avocado omelette (DOPE). I just wanted to thank Brad again for his hospitality and kindness, you truly made my stay memorable. More</t>
   </si>
   <si>
-    <t>sogno_39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r561381972-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -477,9 +540,6 @@
     <t>Loved the concept of the hotel.To compare with Hilton's Home2suite, the elements has better bedding and decor.The heavenly bed was heavenly.But Home2suite has better breakfast menu and better services.I really liked the setting of breakfast area. The smeg toaster was lovely. And the  yogurt station was nice. But silverware and plates were not re-stocked  well. Not much choice of menu.The shower  water pressure was too weak.Would stay again? Yes definitely!More</t>
   </si>
   <si>
-    <t>Denise C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r560150220-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,9 +555,6 @@
     <t>I stayed at Element for 5 nights. Originally was staying for 3 but they were very gracious to extend my stay without much notice.  The hotel is amazing in many ways! Staff is first class/ best overall guest service/ way exceeded expectations, in fact, almost shocked at how great everyone was...special mention/thanks to AFOM: Adrain, SUPER: Brad, ASSOC: Kyron, Josh, Kazi, HSK: Tonya.  Room was immaculate and well appointed; loved the fresh scents throughout hotel; loved the understated, eco-friendly decor; amazed to find this jewel (5-star quality) right next to Love Field. Thx for a great stay!!</t>
   </si>
   <si>
-    <t>JacksonvilleAirliner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r558387427-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -516,9 +573,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>rickmK7543RO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r555542119-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -534,9 +588,6 @@
     <t xml:space="preserve">We were looking to move from another state, so made several trips to look for a home in the surrounding  Dallas/Fort Worth area, in doing so finding a nice hotel close to the airport to make it more convenient to return our rental. We had heard about this hotel and tried it. That was it, this is a very fine hotel, very friendly staff, very clean and excellent service. </t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r554856048-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -558,9 +609,6 @@
     <t>I would first like to start off by stating that this hotel is absolutely amazing! The decor is great and I really love how they incorporate two brands. The A-Loft had a very modern theme and a great view of the city. The room was clean, comfortable, and was able to accommodate four guests comfortably. The service was also fantastic! I purchased a few items from the convenience store and the gentleman who checked me out was very pleasant. Also, the ease of check in and check out was fantastic. Brad made sure that we had the room we wanted and even called our room to make sure we were satisfied. I have never had this at a hotel and I will DEFINITELY be returning to this hotel while in Dallas. If you have never stayed at a Starwood Property then now is the time to do so. If Brad is working, he will definitely take great care of you!More</t>
   </si>
   <si>
-    <t>Terry P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r544433724-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -588,9 +636,6 @@
     <t>I stayed at this hotel for business this week.  Although all the staff was helpful, I observed a particularly helpful new front desk trainee, Allen, who worked so hard to make things easier on an older traveler! My first job was with Hilton hotels for five years so I know what to look for.More</t>
   </si>
   <si>
-    <t>i-love-2-travel-xx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r543204918-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -615,9 +660,6 @@
     <t>This is an interesting hotel.  The building is spit into two hotels, and the Element is the side for longer stays.  The room includes a kitchen area and lots of storage.  The vibe here is very hip and cool - modern decor.  New.  Makes it a fun place to stay.  Another plus is the airport shuttle.  However, some kinks need to be worked out.  The items in the free breakfast that should be hot (eggs, coffee, etc.) were all cold.  The workout room had no clock, which is needed for timed exercises as well as keeping on schedule (like making it to breakfast before it closes).  Also, no mat which is essential for cool down and other exercises like sit-ups, and no remote to change the TV channel.  These are easy fixes, and I hope they are done.More</t>
   </si>
   <si>
-    <t>cpep22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r540430846-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -640,9 +682,6 @@
   </si>
   <si>
     <t>So...I checked in to my room and had several large stains on the inside of my comforter...they looked like blood stains but I can't be certain...I requested for the sheets to be changed before I left for the day...when I came back to the room at the end of the day worn out and exhausted, I couldn't wait to jump in bed but to my dismay the dirty sheets were still on the bed! Had to wait about another 45-60 min to get them changed out. While I understand this is a fairly new hotel and I'm sure this is a fine establishment that's managed well, I had a poor experience. As a platinum member, I travel and stay in as many as 16 different hotels a month...and this was the least favorable experience I've had in the last 3-4 weeks. Thankfully, Kyron (changed my sheets) and Darius (front desk) made things right. Shot out to them and I hope they get commended/rewarded for their efforts. Nice looking hotel but lack luster service...in my short experience. Other than that hotel was fine. Clean with nice modern decor.More</t>
-  </si>
-  <si>
-    <t>Andrew G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r533879770-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -661,7 +700,7 @@
 Upon arrival, I was promptly and warmly greeted at the counter and welcomed onto the property. The hotel was clean, music and overall ambiance were inviting, and it was clear to me that this hotel can be attractive to multiple demographics. Whether you are in your mid-20s looking for a clean, modern, and eco-friendly option, or if you're a larger family on vacation looking for a comfortable room with extended-stay features, this hotel will certainly work well for both groups.
 With regard to the hotel itself, the immediate things that stood out were its cleanliness, bright and inviting spaces, and a unique and modern eco-friendly design. This Element property has mastered the ability to encourage sustainability while still remaining warm and inviting to guests.
 I had noted on my reservation that I was celebrating my birthday, and was pleasantly surprised to see my room upgraded, along with a personalized note and accompanying welcome gifts inside my room. That was certainly a nice touch and I appreciated the gesture, especially since it was clear to me that this hotel was at capacity and yet still made an effort to offer that level of attention to detail.
-The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas...This is my first time staying at an Element property, and I could not have been more satisfied.Upon arrival, I was promptly and warmly greeted at the counter and welcomed onto the property. The hotel was clean, music and overall ambiance were inviting, and it was clear to me that this hotel can be attractive to multiple demographics. Whether you are in your mid-20s looking for a clean, modern, and eco-friendly option, or if you're a larger family on vacation looking for a comfortable room with extended-stay features, this hotel will certainly work well for both groups.With regard to the hotel itself, the immediate things that stood out were its cleanliness, bright and inviting spaces, and a unique and modern eco-friendly design. This Element property has mastered the ability to encourage sustainability while still remaining warm and inviting to guests.I had noted on my reservation that I was celebrating my birthday, and was pleasantly surprised to see my room upgraded, along with a personalized note and accompanying welcome gifts inside my room. That was certainly a nice touch and I appreciated the gesture, especially since it was clear to me that this hotel was at capacity and yet still made an effort to offer that level of attention to detail.The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas prints and wall art, and a kitchenette ready for cooking up delicious meals in. I did not get the opportunity to cook in my room, but I'll be sure to come back and take up the opportunity. The bed was large and comfortable, and was certainly a treat to fall asleep in. I also appreciated the window treatments that allowed for full-customization of lighting and privacy during my stay. My view of the hotel faced towards Dallas Love Field, and as an airplane fan, I loved the view and was not at all disturbed by any noise from the airplanes taking off. The bathroom was organized well, and I appreciated the extra lighting and soaps that further added to the Element brand -- clean, crisp, and refreshing.I did take advantage of Element's breakfast service and was thoroughly impressed. Simple yet satisfying options of hot items included breakfast biscuits on one morning and breakfast wraps on another, accompanied by plenty of breakfast desserts and cereals, along with oatmeal and fruit. The breakfast area was well tended to throughout...MoreShow less</t>
+The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas...This is my first time staying at an Element property, and I could not have been more satisfied.Upon arrival, I was promptly and warmly greeted at the counter and welcomed onto the property. The hotel was clean, music and overall ambiance were inviting, and it was clear to me that this hotel can be attractive to multiple demographics. Whether you are in your mid-20s looking for a clean, modern, and eco-friendly option, or if you're a larger family on vacation looking for a comfortable room with extended-stay features, this hotel will certainly work well for both groups.With regard to the hotel itself, the immediate things that stood out were its cleanliness, bright and inviting spaces, and a unique and modern eco-friendly design. This Element property has mastered the ability to encourage sustainability while still remaining warm and inviting to guests.I had noted on my reservation that I was celebrating my birthday, and was pleasantly surprised to see my room upgraded, along with a personalized note and accompanying welcome gifts inside my room. That was certainly a nice touch and I appreciated the gesture, especially since it was clear to me that this hotel was at capacity and yet still made an effort to offer that level of attention to detail.The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas prints and wall art, and a kitchenette ready for cooking up delicious meals in. I did not get the opportunity to cook in my room, but I'll be sure to come back and take up the opportunity. The bed was large and comfortable, and was certainly a treat to fall asleep in. I also appreciated the window treatments that allowed for full-customization of lighting and privacy during my stay. My view of the hotel faced towards Dallas Love Field, and as an airplane fan, I loved the view and was not at all disturbed by any noise from the airplanes taking off. The bathroom was organized well, and I appreciated the extra lighting and soaps that further added to the Element brand -- clean, crisp, and refreshing.I did take advantage of Element's breakfast service and was thoroughly impressed. Simple yet satisfying options of hot items included breakfast biscuits on one morning and breakfast wraps on another, accompanied by plenty of breakfast desserts and cereals, along with oatmeal and fruit. The breakfast area was well tended to throughout the service and the staff working in the breakfast area personally greeted each guest they encountered with a "Good Morning" and an offer to provide assistance. That level of customer service was nice to see and seemed to come very naturally to the female agent who was leading the team each morning.While I did not have time to utilize the pool or gym, I did walk by both facilities and must say that they were both in working and inviting conditions and I will be sure to try both of these out during my next visit.If you have not yet been to an Element hotel, or if perhaps your primary concern is of finding a reputable hotel that matches value with unparalleled customer service, I would unequivocally recommend Element Dallas Love Field. Your experience is sure to be unique, inviting, and without a doubt will make you want to return back and bring new friends and family to experience this hotel's many great features.My thanks to the staff at Element Dallas Love Field who made my first experience with the Element brand a superb one and left me proud to call this my new 'home away from home' in Dallas. I will be back and very much look forward to my next stay!MoreShow less</t>
   </si>
   <si>
     <t>October 2017</t>
@@ -671,10 +710,7 @@
 Upon arrival, I was promptly and warmly greeted at the counter and welcomed onto the property. The hotel was clean, music and overall ambiance were inviting, and it was clear to me that this hotel can be attractive to multiple demographics. Whether you are in your mid-20s looking for a clean, modern, and eco-friendly option, or if you're a larger family on vacation looking for a comfortable room with extended-stay features, this hotel will certainly work well for both groups.
 With regard to the hotel itself, the immediate things that stood out were its cleanliness, bright and inviting spaces, and a unique and modern eco-friendly design. This Element property has mastered the ability to encourage sustainability while still remaining warm and inviting to guests.
 I had noted on my reservation that I was celebrating my birthday, and was pleasantly surprised to see my room upgraded, along with a personalized note and accompanying welcome gifts inside my room. That was certainly a nice touch and I appreciated the gesture, especially since it was clear to me that this hotel was at capacity and yet still made an effort to offer that level of attention to detail.
-The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas...This is my first time staying at an Element property, and I could not have been more satisfied.Upon arrival, I was promptly and warmly greeted at the counter and welcomed onto the property. The hotel was clean, music and overall ambiance were inviting, and it was clear to me that this hotel can be attractive to multiple demographics. Whether you are in your mid-20s looking for a clean, modern, and eco-friendly option, or if you're a larger family on vacation looking for a comfortable room with extended-stay features, this hotel will certainly work well for both groups.With regard to the hotel itself, the immediate things that stood out were its cleanliness, bright and inviting spaces, and a unique and modern eco-friendly design. This Element property has mastered the ability to encourage sustainability while still remaining warm and inviting to guests.I had noted on my reservation that I was celebrating my birthday, and was pleasantly surprised to see my room upgraded, along with a personalized note and accompanying welcome gifts inside my room. That was certainly a nice touch and I appreciated the gesture, especially since it was clear to me that this hotel was at capacity and yet still made an effort to offer that level of attention to detail.The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas prints and wall art, and a kitchenette ready for cooking up delicious meals in. I did not get the opportunity to cook in my room, but I'll be sure to come back and take up the opportunity. The bed was large and comfortable, and was certainly a treat to fall asleep in. I also appreciated the window treatments that allowed for full-customization of lighting and privacy during my stay. My view of the hotel faced towards Dallas Love Field, and as an airplane fan, I loved the view and was not at all disturbed by any noise from the airplanes taking off. The bathroom was organized well, and I appreciated the extra lighting and soaps that further added to the Element brand -- clean, crisp, and refreshing.I did take advantage of Element's breakfast service and was thoroughly impressed. Simple yet satisfying options of hot items included breakfast biscuits on one morning and breakfast wraps on another, accompanied by plenty of breakfast desserts and cereals, along with oatmeal and fruit. The breakfast area was well tended to throughout...More</t>
-  </si>
-  <si>
-    <t>mommabeara</t>
+The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas...This is my first time staying at an Element property, and I could not have been more satisfied.Upon arrival, I was promptly and warmly greeted at the counter and welcomed onto the property. The hotel was clean, music and overall ambiance were inviting, and it was clear to me that this hotel can be attractive to multiple demographics. Whether you are in your mid-20s looking for a clean, modern, and eco-friendly option, or if you're a larger family on vacation looking for a comfortable room with extended-stay features, this hotel will certainly work well for both groups.With regard to the hotel itself, the immediate things that stood out were its cleanliness, bright and inviting spaces, and a unique and modern eco-friendly design. This Element property has mastered the ability to encourage sustainability while still remaining warm and inviting to guests.I had noted on my reservation that I was celebrating my birthday, and was pleasantly surprised to see my room upgraded, along with a personalized note and accompanying welcome gifts inside my room. That was certainly a nice touch and I appreciated the gesture, especially since it was clear to me that this hotel was at capacity and yet still made an effort to offer that level of attention to detail.The room that I stayed in reminded me of a beautifully-designed studio, complete with accent walls, built-in wall USB charge ports, plenty of great lighting, framed canvas prints and wall art, and a kitchenette ready for cooking up delicious meals in. I did not get the opportunity to cook in my room, but I'll be sure to come back and take up the opportunity. The bed was large and comfortable, and was certainly a treat to fall asleep in. I also appreciated the window treatments that allowed for full-customization of lighting and privacy during my stay. My view of the hotel faced towards Dallas Love Field, and as an airplane fan, I loved the view and was not at all disturbed by any noise from the airplanes taking off. The bathroom was organized well, and I appreciated the extra lighting and soaps that further added to the Element brand -- clean, crisp, and refreshing.I did take advantage of Element's breakfast service and was thoroughly impressed. Simple yet satisfying options of hot items included breakfast biscuits on one morning and breakfast wraps on another, accompanied by plenty of breakfast desserts and cereals, along with oatmeal and fruit. The breakfast area was well tended to throughout the service and the staff working in the breakfast area personally greeted each guest they encountered with a "Good Morning" and an offer to provide assistance. That level of customer service was nice to see and seemed to come very naturally to the female agent who was leading the team each morning.While I did not have time to utilize the pool or gym, I did walk by both facilities and must say that they were both in working and inviting conditions and I will be sure to try both of these out during my next visit.If you have not yet been to an Element hotel, or if perhaps your primary concern is of finding a reputable hotel that matches value with unparalleled customer service, I would unequivocally recommend Element Dallas Love Field. Your experience is sure to be unique, inviting, and without a doubt will make you want to return back and bring new friends and family to experience this hotel's many great features.My thanks to the staff at Element Dallas Love Field who made my first experience with the Element brand a superb one and left me proud to call this my new 'home away from home' in Dallas. I will be back and very much look forward to my next stay!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r526876375-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -704,9 +740,6 @@
     <t>Modern hotel very near Dallas Love Field airport. Free hotel shuttle to airport every 30 minutes. Pool. Gym. Some, limited food available. Kitchenettes in rooms with microwave, small fridge, sink.  Not far from SMU &amp; downtown Dallas &amp; Deep Ellum area.More</t>
   </si>
   <si>
-    <t>Liliana P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r524470229-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -719,7 +752,7 @@
     <t xml:space="preserve">Best service ever at wxyz lounge </t>
   </si>
   <si>
-    <t>I am big on customer service and work in management for customer service. The bartender Darius Beal at wxyz lounge was very awesome. He did it all place order make drinks and still made small convo at the bar with his customers. No matter how busy the bar got he kept up with each customers and smiled. Even when he placed orders and went to get them he would come right back out the the bar to deliver the food he wouldn't step away for no longer 2-3 mins he made sure the customers glasses stayed filled. He was very attentive to customers in the lounge area as well.He would ask how's your day, can I get you anything. One customer didn't even know what they wanted to drink he asked will what you like and he made their drink and she was very shocked like this is really good is omg what is this. He is a 5 star bartender.⭐️⭐️⭐️⭐️⭐️. I will definitely be back!!!!MoreShow less</t>
+    <t>I am big on customer service and work in management for customer service. The bartender Darius Beal at wxyz lounge was very awesome. He did it all place order make drinks and still made small convo at the bar with his customers. No matter how busy the bar got he kept up with each customers and smiled. Even when he placed orders and went to get them he would come right back out the the bar to deliver the food he wouldn't step away for no longer 2-3 mins he made sure the customers glasses stayed filled. He was very attentive to customers in the lounge area as well.He would ask how's your day, can I get you anything. One customer didn't even know what they wanted to drink he asked will what you like and he made their drink and she was very shocked like this is really good is omg what is this. He is a 5 star bartender.️️️️️. I will definitely be back!!!!MoreShow less</t>
   </si>
   <si>
     <t>Randall E, General Manager at Element Dallas Love Field, responded to this reviewResponded September 18, 2017</t>
@@ -728,10 +761,7 @@
     <t>Responded September 18, 2017</t>
   </si>
   <si>
-    <t>I am big on customer service and work in management for customer service. The bartender Darius Beal at wxyz lounge was very awesome. He did it all place order make drinks and still made small convo at the bar with his customers. No matter how busy the bar got he kept up with each customers and smiled. Even when he placed orders and went to get them he would come right back out the the bar to deliver the food he wouldn't step away for no longer 2-3 mins he made sure the customers glasses stayed filled. He was very attentive to customers in the lounge area as well.He would ask how's your day, can I get you anything. One customer didn't even know what they wanted to drink he asked will what you like and he made their drink and she was very shocked like this is really good is omg what is this. He is a 5 star bartender.⭐️⭐️⭐️⭐️⭐️. I will definitely be back!!!!More</t>
-  </si>
-  <si>
-    <t>tmw8318</t>
+    <t>I am big on customer service and work in management for customer service. The bartender Darius Beal at wxyz lounge was very awesome. He did it all place order make drinks and still made small convo at the bar with his customers. No matter how busy the bar got he kept up with each customers and smiled. Even when he placed orders and went to get them he would come right back out the the bar to deliver the food he wouldn't step away for no longer 2-3 mins he made sure the customers glasses stayed filled. He was very attentive to customers in the lounge area as well.He would ask how's your day, can I get you anything. One customer didn't even know what they wanted to drink he asked will what you like and he made their drink and she was very shocked like this is really good is omg what is this. He is a 5 star bartender.️️️️️. I will definitely be back!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r524358466-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -755,9 +785,6 @@
     <t>The Element by Westin is a really nice hotel in the area.. but it's the staff that makes it that much more special.  Both Kyron and Sandy are a gem.  There is never a morning that Sandy doesn't have a bright smile on her face and saying Good Morning Ms. X.  In the evening, Kyron is just as personable and friendly.  I often ask for additional items and he is very eager to get it my room in a timely fashion. Thanks again for your lovely service Kyron and Sandy!More</t>
   </si>
   <si>
-    <t>Phillip N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r523285579-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -782,9 +809,6 @@
     <t>Rooms were great. Deceptive advertising at bar. Ordered food and drink at bar based on menu provided. Turned out to be "happy hour" pricing, yet no other menu/pricing provided. Cost was double advertised price. Deceptive.More</t>
   </si>
   <si>
-    <t>295alanaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r516478352-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -812,9 +836,6 @@
     <t>Heather and Ky are both amazing.  I have stayed at the Element every week for the past few months and they make me feel right at home.  They welcome me by my first name every time I enter the hotel and they know my preferences.  Even when my room key decides to stop working or I need something brought up to my room they are extremely pleasant and make themselves very available.More</t>
   </si>
   <si>
-    <t>MoonWillow420</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r505253885-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -842,9 +863,6 @@
     <t>Several reasons I would not stay here again. 1.  If you have dogs there are no rooms on ground level pets must stay on level 2 therefore you must use a stairwell that locks behind you or use an elevator that takes you through the main lobby. There is absolutely no where to walk your dogs no grass area.  2. They have a very nice laundry room, the washing machine as an h e but the only laundry soap they sell is powdered regular and that is in a machine that also requires quarters but there is no change machine in the laundry room and the lobby desk does not have quarters. 3.  There is road construction on the main road out front lots of horns and traffic noise  4.  There is also building construction directly behind and beside the hotel so there is constant construction noise all day long.  5. Very close to Love Field so there is the airplanes landing and taking off noisy. 6.  There is nothing in walking distance such as stores or restaurants.  7.  Be mindful on the second floor if you face the pool you will also have to deal with the Drone of the rooftop air conditioners.  The rooms themselves seems to be nice with adequate ammenities,  but the air conditioner  runs all the time and is too cool but if you turn it up it gets to warm and muggy.  I appreciate...Several reasons I would not stay here again. 1.  If you have dogs there are no rooms on ground level pets must stay on level 2 therefore you must use a stairwell that locks behind you or use an elevator that takes you through the main lobby. There is absolutely no where to walk your dogs no grass area.  2. They have a very nice laundry room, the washing machine as an h e but the only laundry soap they sell is powdered regular and that is in a machine that also requires quarters but there is no change machine in the laundry room and the lobby desk does not have quarters. 3.  There is road construction on the main road out front lots of horns and traffic noise  4.  There is also building construction directly behind and beside the hotel so there is constant construction noise all day long.  5. Very close to Love Field so there is the airplanes landing and taking off noisy. 6.  There is nothing in walking distance such as stores or restaurants.  7.  Be mindful on the second floor if you face the pool you will also have to deal with the Drone of the rooftop air conditioners.  The rooms themselves seems to be nice with adequate ammenities,  but the air conditioner  runs all the time and is too cool but if you turn it up it gets to warm and muggy.  I appreciate the fact they are pet friendly but there was certainly no thought put into pet needs. I hope this review help somebody with pets I researched and did not understand that I would be on the second floor only my dogs are 90 lb each terrified of elevators and older so it is difficult for them to go up and down the stairs I wish I would have known. More</t>
   </si>
   <si>
-    <t>jeddie1889</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r501895374-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -869,9 +887,6 @@
     <t>I booked last minute so that I could quickly get to Love Field in the morning.  I booked online while I was on the phone with Ky.  I let him know that my girls had never been in a hotel and he was able to upgrade our room and give us a great view!  We got to meet "Bot" the robot that brings extra towels and loved it!  Everything was clean and very comfortable and the trip to the airport was fast. Ky was great!  We will be back next time we fly! More</t>
   </si>
   <si>
-    <t>ksr96</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r498914121-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -899,9 +914,6 @@
     <t>Enjoyed my 2 night stay at the Element!  Very comfortable room and bed and this hotel is extremely clean.  Easy access to Love Field and really all points of Dallas. The bar in the hotel is really good. Russ was fantastic!!!    More</t>
   </si>
   <si>
-    <t>Marina M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r497650428-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -920,9 +932,6 @@
     <t>My husband and I stayed with our dog, Brady, while moving across the country. We love Starwood for their pet-friendliness and we've stayed at many Alofts, but never Element. At this property, they're in the same building with some shared facilities. We arrived late in the day and decide to eat at the XYZ bar at Aloft so we could bring the dog (menu was small but the food was surprisingly good). Our room was fine. Small and basic but very clean and modern. I'm glad we chose Element though, because breakfast was included in the price. Better than your average hotel continental breakfast. I had an egg white, quinoa, spinach, hash brown scramble thing with some yogurt and tea and was happy to start our next leg of the road trip with a filling and healthy breakfast (and bonus points - we could eat in the lobby with our dog). I had read reviews that the neighborhood was sketchy but didn't find that to be the case. You're staying at an airport hotel so the neighborhood isn't exactly a destination, but I wish people would leave reviews based on what the experience was supposed to be (this isn't the Waldorf, but it easily met and exceeded all of our expectations for an easy one-night stop). More</t>
   </si>
   <si>
-    <t>A6332MTstevenl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r497557540-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -941,9 +950,6 @@
     <t>Awesome three night stay at the Element. Wonderful, new, clean hotel around the corner from Love Field and within minutes of SMU and area freeways. Very professional and friendly staff. Good breakfast and complimentary beer and wine during the week. New hotel with good noise insulation so noise wasn't an issue like at many other nearby hotels. Reasonably priced, good value for cost. All positives and nothing negative to report, and I am very picky! Tried other hotels in the area and the Element is superior. Will definitely return.More</t>
   </si>
   <si>
-    <t>rws10362</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r495231672-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -968,9 +974,6 @@
     <t>My husband and I had to stay here for three nights for a business trip. For some inexplicable reason I had to reregister and get keys redone everyday we were here before 11;00am each day. Front desk person was unapologetic when they had no laundry detergent for the laundry facilities. On day three my door locked and so my dog and myself were trapped/locked in our room. It took them 30 minutes to come and get the door unjammed.Again no apologies for our inconvenience. They obviously don't instruct their employees about customer service. You feel like you are inconveniencing them. Rooms are very small and not good for more than an overnight stay.More</t>
   </si>
   <si>
-    <t>SwankB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r489881596-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -998,9 +1001,6 @@
     <t>Stayed at this hotel Memorial Day weekend and this was our second time staying here. On Sunday night someone tried to steal out 2017 GMC DENALI, we where parked in the front of the hotel on the back row. They tried to pop out door handle where you insert the key. When we went to check out the hotel and moved our car to the hotel to load luggage that is when we noticed it! On the Monday there was no MANAGER/ SUPERVISOR or GENERAL MANAGER at work, I guess because it was Memorial Day but how do you not have someone of that level available to cover issues as such. Some form of management should be on duty at all times!!!! I have contacted corporate and I'm waiting for a call back. Yes the hotel is new and it's nice and the first time staying a month a go we had no problems but this time we did. I made a complaint with the ladies and gentlemen that was there but funny thing is no one in management representing hotel has reached out to me or my husband and that's a disappointment because I'm sure they are aware of the incident from the employees that where there on that Monday morning.....More</t>
   </si>
   <si>
-    <t>Rhina R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r486247368-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1025,9 +1025,6 @@
     <t>Clean, smells new, and bright.  Enjoyed my overnight stay.  Reasonably priced, but unpretentious.  Great complimentary breakfast with hot eggs and bacon/sausage to boot.  The Element side has a microwave, coffee maker, kitchen utensils.  Desk also is provided.  Large screen TV.  View of the pool.  Shared bar/lounge with the Aloft hotel.  Free parking.  Bed was comfortable; tons of pillows.  Will definitely return.More</t>
   </si>
   <si>
-    <t>hotellover88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r484741820-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1050,9 +1047,6 @@
   </si>
   <si>
     <t>We stayed twice going in and out of Love Field.  Just a one-night stay each time but loved the room, especially the bathroom layout and amenities.  The Heavenly Bed really was heavenly.  Best hotel bed I've ever slept on.  We enjoyed a couple of glasses of wine in the adjacent WXYZ bar in the Aloft Hotel.  The lady at the bar on Sunday night was very personable and professional.  Didn't catch her name but she was great!More</t>
-  </si>
-  <si>
-    <t>akakes17</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r483237608-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1080,9 +1074,6 @@
 The only saving grace in this matter was a front desk employee named Josh. He was...As someone who does long term business travel, I look for hotels with kitchen amenities. Element did not disappoint! Knives that actually cut things? Non-stick pans? The only thing left to be desired was a garbage disposal, but that's just me being picky. Combined with a great gym, beautiful pool, and well designed rooms, I would definitely stay here again.I stayed at this location shortly after their grand opening, so I am definitely willing to overlook a few bumps in the road - including finding a mouse in my room. When this happened, I called down to the front desk, and they promptly sent up 2 maintenance employees to have this matter resolved. I went down to the pool to read a book and wait it out once pest control arrived. While down there, one of the front end employees offered to turn on the fireplace for me since it was a bit chilly outside. While he was trying to figure it out I mentioned that I was waiting while they cleared a mouse out of my room. This guy joked that, "if he knew I had extra occupants, he would have charged me more." I found this to be a COMPLETELY inappropriate response. The hotel also offered no compensation for the inconvenience, I had to ask for what I was eventually given.The only saving grace in this matter was a front desk employee named Josh. He was wonderful, super apologetic, and got me situated in a new room. Thank you Josh for all your help!More</t>
   </si>
   <si>
-    <t>songstress815</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r482493792-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1099,9 +1090,6 @@
   </si>
   <si>
     <t>We were in town for the night to see a concert and needed a clean hotel with some amenities to stay at. We found Element and were not disappointed. Check in was a little challenging as there was no one on the Element side and one attendant on the Aloft side. He was very courteous and welcoming, though. The room was spacious and had essentials for simples in-room meals. The bed was very comfortable! I worked out before we headed home and could not believe how much equipment was in the gym! It truly had anything a person would need to get in a good workout. It was obvious that there was intention in setting up this gym instead of just putting one in as a "have to" afterthought. Breakfast was good as well. My only disappointment was that they ran out of regular eggs. The quinoa egg white has was very satisfying. There were plenty of choices.I would say that this hotel is really geared more towards the business traveler or adults even though there was a nice, shared pool. The vibe is great and I would recommend this hotel.More</t>
-  </si>
-  <si>
-    <t>18554travel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r482049010-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1130,9 +1118,6 @@
 The misses are small, and could easily be rectified. So, though beds are comfortable, the sheets are rough. The airport shuttle only starts running at 6.00, so anyone with a flight at 7.00 or before has to order a cab/Uber—which at very early hours is not always easy. Despite...The Element Dallas Love Field is Starwood’s answer to the extended stay hotel, and as usual, they get it mostly right. Starting with the friendly, helpful staff, and continuing to the spacious, well-designed rooms (with small kitchens—equipped with refrigerator, microwave, cooktop, dishwasher, dishes, flatware, pots, pans, and utensils; a dining table; desk; and seating area), the hotel is a clear cut above its competitors and would be a reasonable, even pleasant place to spend a week on business. This property is brand new, so everything is fresh and works well. The location is a bit underdeveloped, but it is less than 5 minutes from the airport, and there are plenty of restaurants nearby (in a nice touch, the hotel shuttle will take guests to and from anything within a three-mile radius). I left too early to try the breakfast, but the room was certainly pleasant and sunny. There are snacks and small meals for sale in the lobby for other meals, as the hotel does not have a restaurant (the property is also an “Aloft,” which has a bar and its own food options, which are all available to Element guests).The misses are small, and could easily be rectified. So, though beds are comfortable, the sheets are rough. The airport shuttle only starts running at 6.00, so anyone with a flight at 7.00 or before has to order a cab/Uber—which at very early hours is not always easy. Despite being in a clear suburban location, the hotel charges $8.00 to park, which is ridiculous.Despite these minor irritations, the Element Dallas Love Field is a great option (one of few) for those who need to stay near this convenient, in-town airport. It provides visitors with an excellent experience at a moderate price point (under $140/night when I stayed), and I a brand to consider seriously when in the need for this type of hotel.More</t>
   </si>
   <si>
-    <t>scubadillo99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r479828500-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1154,9 +1139,6 @@
     <t>New place near Love Field.  We found the hotel to be super clean and the service was superior.  Nice bar area in next door Aloft area. Really comfortable beds and the room was clean, for the most part.  The only negative was the hair left in the bottom of the shower in our room.  That was kind of a turn-off, but it is my wife and I's new place to stay when we travel out of Love Field.   The shuttle service was THE BEST service I've ever had.   Really nice drivers and ON-TIME.  Reasonable rates to leave your car.More</t>
   </si>
   <si>
-    <t>Brian M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r476271198-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1181,9 +1163,6 @@
     <t>Upon arrival to the hotel we were told the shuttle service to and from the airport runs every half hour.  I had to return my rental  car to the airport and had expected to take the hotel shuttle back to the hotel.  I arrived at the shuttle pick up location at 9:15pm and by 9:30pm, no shuttle.  Called the hotel and was told one would be leaving at 10:00pm.  By 10:15pm still no shuttle.  Called back and was told they would send a shuttle to retrieve me.  Shuttle finally arrived a little after 10:30pm.  The hotel is approximately 1.1 miles from the airport.  When we returned to the hotel we were given many ridiculous excuses as to why they had not arrived.  Moral of the story if you expect to be anywhere on time, do not stay at this hotel. More</t>
   </si>
   <si>
-    <t>Jonathan V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r473903944-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1208,9 +1187,6 @@
     <t>Great bed and mattress, and the air conditioning was perfect.Frustratingly slow check in.  An Aloft and an Element hotel are essentially joined to deter here.  From what I saw, the Element side seemed much nicer. . .brighter, airier.  Parking was free, but I had to park in the back of the building.I would return.More</t>
   </si>
   <si>
-    <t>DanaeHW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r470430030-Element_Dallas_Love_Field-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1227,9 +1203,6 @@
   </si>
   <si>
     <t>Beautiful hotel with lots of amenities and great customer service. My room was very spacious and decorated tastefully. There aren't a lot of things to do nearby but there is a shuttle that will take you within a reasonable distance and the staff members are happy to give you great recommendations. More</t>
-  </si>
-  <si>
-    <t>BusinessGalfromSouth</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12059413-r468611624-Element_Dallas_Love_Field-Dallas_Texas.html</t>
@@ -1752,47 +1725,43 @@
       <c r="A2" t="n">
         <v>65800</v>
       </c>
-      <c r="B2" t="n">
-        <v>8113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1806,121 +1775,107 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65800</v>
       </c>
-      <c r="B3" t="n">
-        <v>3631</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65800</v>
       </c>
-      <c r="B4" t="n">
-        <v>83149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1934,54 +1889,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65800</v>
       </c>
-      <c r="B5" t="n">
-        <v>132306</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1995,54 +1946,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65800</v>
       </c>
-      <c r="B6" t="n">
-        <v>132307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2056,54 +2003,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65800</v>
       </c>
-      <c r="B7" t="n">
-        <v>45492</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2117,253 +2060,221 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65800</v>
       </c>
-      <c r="B8" t="n">
-        <v>132308</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65800</v>
       </c>
-      <c r="B9" t="n">
-        <v>132309</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65800</v>
       </c>
-      <c r="B10" t="n">
-        <v>132310</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65800</v>
       </c>
-      <c r="B11" t="n">
-        <v>7363</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2377,182 +2288,170 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65800</v>
       </c>
-      <c r="B12" t="n">
-        <v>9377</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65800</v>
       </c>
-      <c r="B13" t="n">
-        <v>132311</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65800</v>
       </c>
-      <c r="B14" t="n">
-        <v>132312</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2566,189 +2465,183 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65800</v>
       </c>
-      <c r="B15" t="n">
-        <v>132313</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65800</v>
       </c>
-      <c r="B16" t="n">
-        <v>51308</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>146</v>
-      </c>
-      <c r="X16" t="s">
-        <v>147</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65800</v>
       </c>
-      <c r="B17" t="n">
-        <v>3679</v>
-      </c>
-      <c r="C17" t="s">
-        <v>149</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2759,116 +2652,108 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65800</v>
       </c>
-      <c r="B18" t="n">
-        <v>132314</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65800</v>
       </c>
-      <c r="B19" t="n">
-        <v>132315</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2881,63 +2766,59 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65800</v>
       </c>
-      <c r="B20" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>174</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2948,270 +2829,234 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65800</v>
       </c>
-      <c r="B21" t="n">
-        <v>35136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>183</v>
-      </c>
-      <c r="X21" t="s">
-        <v>184</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65800</v>
       </c>
-      <c r="B22" t="n">
-        <v>132316</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>192</v>
-      </c>
-      <c r="X22" t="s">
-        <v>193</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65800</v>
       </c>
-      <c r="B23" t="n">
-        <v>132317</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="X23" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65800</v>
       </c>
-      <c r="B24" t="n">
-        <v>4438</v>
-      </c>
-      <c r="C24" t="s">
-        <v>204</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3222,120 +3067,108 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65800</v>
       </c>
-      <c r="B25" t="n">
-        <v>132318</v>
-      </c>
-      <c r="C25" t="s">
-        <v>212</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>219</v>
-      </c>
-      <c r="X25" t="s">
-        <v>220</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65800</v>
       </c>
-      <c r="B26" t="n">
-        <v>132319</v>
-      </c>
-      <c r="C26" t="s">
-        <v>222</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>218</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3345,388 +3178,374 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>228</v>
-      </c>
-      <c r="X26" t="s">
-        <v>229</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65800</v>
       </c>
-      <c r="B27" t="n">
-        <v>132320</v>
-      </c>
-      <c r="C27" t="s">
-        <v>231</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>236</v>
-      </c>
-      <c r="X27" t="s">
-        <v>237</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65800</v>
       </c>
-      <c r="B28" t="n">
-        <v>132321</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="X28" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65800</v>
       </c>
-      <c r="B29" t="n">
-        <v>132322</v>
-      </c>
-      <c r="C29" t="s">
-        <v>248</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="X29" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65800</v>
       </c>
-      <c r="B30" t="n">
-        <v>132323</v>
-      </c>
-      <c r="C30" t="s">
-        <v>258</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="X30" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65800</v>
       </c>
-      <c r="B31" t="n">
-        <v>132324</v>
-      </c>
-      <c r="C31" t="s">
-        <v>268</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+      <c r="N31" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" t="s">
+        <v>92</v>
+      </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>274</v>
-      </c>
-      <c r="X31" t="s">
-        <v>275</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65800</v>
       </c>
-      <c r="B32" t="n">
-        <v>132325</v>
-      </c>
-      <c r="C32" t="s">
-        <v>277</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3738,60 +3557,56 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="X32" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="Y32" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65800</v>
       </c>
-      <c r="B33" t="n">
-        <v>132326</v>
-      </c>
-      <c r="C33" t="s">
-        <v>287</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3803,125 +3618,123 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="X33" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65800</v>
       </c>
-      <c r="B34" t="n">
-        <v>132327</v>
-      </c>
-      <c r="C34" t="s">
-        <v>294</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="X34" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65800</v>
       </c>
-      <c r="B35" t="n">
-        <v>132328</v>
-      </c>
-      <c r="C35" t="s">
-        <v>301</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3933,60 +3746,56 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="X35" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65800</v>
       </c>
-      <c r="B36" t="n">
-        <v>132329</v>
-      </c>
-      <c r="C36" t="s">
-        <v>310</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3998,271 +3807,235 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="X36" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="Y36" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65800</v>
       </c>
-      <c r="B37" t="n">
-        <v>132330</v>
-      </c>
-      <c r="C37" t="s">
-        <v>320</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="X37" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65800</v>
       </c>
-      <c r="B38" t="n">
-        <v>132331</v>
-      </c>
-      <c r="C38" t="s">
-        <v>329</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s">
-        <v>316</v>
-      </c>
-      <c r="O38" t="s">
-        <v>76</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="X38" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="Y38" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65800</v>
       </c>
-      <c r="B39" t="n">
-        <v>132332</v>
-      </c>
-      <c r="C39" t="s">
-        <v>338</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="Y39" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65800</v>
       </c>
-      <c r="B40" t="n">
-        <v>132333</v>
-      </c>
-      <c r="C40" t="s">
-        <v>346</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4274,200 +4047,178 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="X40" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="Y40" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65800</v>
       </c>
-      <c r="B41" t="n">
-        <v>132334</v>
-      </c>
-      <c r="C41" t="s">
-        <v>353</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="X41" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="Y41" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65800</v>
       </c>
-      <c r="B42" t="n">
-        <v>132335</v>
-      </c>
-      <c r="C42" t="s">
-        <v>362</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="X42" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="Y42" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65800</v>
       </c>
-      <c r="B43" t="n">
-        <v>10345</v>
-      </c>
-      <c r="C43" t="s">
-        <v>370</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="O43" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4479,214 +4230,655 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="X43" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="Y43" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65800</v>
       </c>
-      <c r="B44" t="n">
-        <v>132336</v>
-      </c>
-      <c r="C44" t="s">
-        <v>379</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
       <c r="J44" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="K44" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="O44" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="X44" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="Y44" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65800</v>
       </c>
-      <c r="B45" t="n">
-        <v>132337</v>
-      </c>
-      <c r="C45" t="s">
-        <v>388</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="X45" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65800</v>
       </c>
-      <c r="B46" t="n">
-        <v>132338</v>
-      </c>
-      <c r="C46" t="s">
-        <v>395</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
+        <v>334</v>
+      </c>
+      <c r="X46" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>345</v>
+      </c>
+      <c r="J47" t="s">
+        <v>346</v>
+      </c>
+      <c r="K47" t="s">
+        <v>347</v>
+      </c>
+      <c r="L47" t="s">
+        <v>348</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>334</v>
+      </c>
+      <c r="X47" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>317</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>355</v>
+      </c>
+      <c r="X48" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
+      <c r="J49" t="s">
+        <v>360</v>
+      </c>
+      <c r="K49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s">
+        <v>362</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>334</v>
+      </c>
+      <c r="X49" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" t="s">
+        <v>367</v>
+      </c>
+      <c r="K50" t="s">
+        <v>368</v>
+      </c>
+      <c r="L50" t="s">
+        <v>369</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>363</v>
+      </c>
+      <c r="O50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>370</v>
+      </c>
+      <c r="X50" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51" t="s">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s">
+        <v>376</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>363</v>
+      </c>
+      <c r="O51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>378</v>
+      </c>
+      <c r="X51" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
         <v>385</v>
       </c>
-      <c r="X46" t="s">
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>342</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>378</v>
+      </c>
+      <c r="X52" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y52" t="s">
         <v>386</v>
       </c>
-      <c r="Y46" t="s">
-        <v>401</v>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65800</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>342</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X53" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
